--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -7836,7 +7836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7847,205 +7847,50 @@
     <row r="1">
       <c r="B1" s="36" t="inlineStr">
         <is>
-          <t>PS_NUMBER_left</t>
+          <t>PS_NUMBER</t>
         </is>
       </c>
       <c r="C1" s="36" t="inlineStr">
         <is>
-          <t>Display Name_left</t>
+          <t>Display Name</t>
         </is>
       </c>
       <c r="D1" s="36" t="inlineStr">
         <is>
-          <t>Official Email Address_left</t>
+          <t>Official Email Address</t>
         </is>
       </c>
       <c r="E1" s="36" t="inlineStr">
         <is>
-          <t>Training Hall</t>
+          <t>Stream</t>
         </is>
       </c>
       <c r="F1" s="36" t="inlineStr">
         <is>
-          <t>Floor Number</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="G1" s="36" t="inlineStr">
         <is>
-          <t>Date Of Joining</t>
+          <t>Area</t>
         </is>
       </c>
       <c r="H1" s="36" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="I1" s="36" t="inlineStr">
         <is>
-          <t>Attending Genesis</t>
+          <t>Permanent Address</t>
         </is>
       </c>
       <c r="J1" s="36" t="inlineStr">
         <is>
-          <t>System Number</t>
+          <t>Data1</t>
         </is>
       </c>
       <c r="K1" s="36" t="inlineStr">
-        <is>
-          <t>Team Number</t>
-        </is>
-      </c>
-      <c r="L1" s="36" t="inlineStr">
-        <is>
-          <t>PS_NUMBER_right</t>
-        </is>
-      </c>
-      <c r="M1" s="36" t="inlineStr">
-        <is>
-          <t>Display Name_right</t>
-        </is>
-      </c>
-      <c r="N1" s="36" t="inlineStr">
-        <is>
-          <t>Official Email Address_right</t>
-        </is>
-      </c>
-      <c r="O1" s="36" t="inlineStr">
-        <is>
-          <t>BUS NUMBER</t>
-        </is>
-      </c>
-      <c r="P1" s="36" t="inlineStr">
-        <is>
-          <t>Working Hours</t>
-        </is>
-      </c>
-      <c r="Q1" s="36" t="inlineStr">
-        <is>
-          <t>Marks Subject1</t>
-        </is>
-      </c>
-      <c r="R1" s="36" t="inlineStr">
-        <is>
-          <t>Marks Subject2</t>
-        </is>
-      </c>
-      <c r="S1" s="36" t="inlineStr">
-        <is>
-          <t>Marks Subject3</t>
-        </is>
-      </c>
-      <c r="T1" s="36" t="inlineStr">
-        <is>
-          <t>Marks Subject4</t>
-        </is>
-      </c>
-      <c r="U1" s="36" t="inlineStr">
-        <is>
-          <t>Marks Subject5</t>
-        </is>
-      </c>
-      <c r="V1" s="36" t="inlineStr">
-        <is>
-          <t>PS_NUMBER_left</t>
-        </is>
-      </c>
-      <c r="W1" s="36" t="inlineStr">
-        <is>
-          <t>Display Name_left</t>
-        </is>
-      </c>
-      <c r="X1" s="36" t="inlineStr">
-        <is>
-          <t>Official Email Address_left</t>
-        </is>
-      </c>
-      <c r="Y1" s="36" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="Z1" s="36" t="inlineStr">
-        <is>
-          <t>Number of clasess attended</t>
-        </is>
-      </c>
-      <c r="AA1" s="36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ATTENDANCE </t>
-        </is>
-      </c>
-      <c r="AB1" s="36" t="inlineStr">
-        <is>
-          <t>Conduct</t>
-        </is>
-      </c>
-      <c r="AC1" s="36" t="inlineStr">
-        <is>
-          <t>Experience</t>
-        </is>
-      </c>
-      <c r="AD1" s="36" t="inlineStr">
-        <is>
-          <t>Placement</t>
-        </is>
-      </c>
-      <c r="AE1" s="36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salary </t>
-        </is>
-      </c>
-      <c r="AF1" s="36" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
-        </is>
-      </c>
-      <c r="AG1" s="36" t="inlineStr">
-        <is>
-          <t>PS_NUMBER_right</t>
-        </is>
-      </c>
-      <c r="AH1" s="36" t="inlineStr">
-        <is>
-          <t>Display Name_right</t>
-        </is>
-      </c>
-      <c r="AI1" s="36" t="inlineStr">
-        <is>
-          <t>Official Email Address_right</t>
-        </is>
-      </c>
-      <c r="AJ1" s="36" t="inlineStr">
-        <is>
-          <t>Stream</t>
-        </is>
-      </c>
-      <c r="AK1" s="36" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="AL1" s="36" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="AM1" s="36" t="inlineStr">
-        <is>
-          <t>Room Number</t>
-        </is>
-      </c>
-      <c r="AN1" s="36" t="inlineStr">
-        <is>
-          <t>Permanent Address</t>
-        </is>
-      </c>
-      <c r="AO1" s="36" t="inlineStr">
-        <is>
-          <t>Data1</t>
-        </is>
-      </c>
-      <c r="AP1" s="36" t="inlineStr">
         <is>
           <t>Data2</t>
         </is>
@@ -8053,168 +7898,49 @@
     </row>
     <row r="2">
       <c r="A2" s="36" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>99003787</v>
+        <v>99003766</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arikatla Pujitha</t>
+          <t>Jayasimha Reddy Ganapuram</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>arikatla.pujitha@ltts.com</t>
+          <t>jayasimha.ganapuram@ltts.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nalanda</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fairfield Marriot</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8th feb,2021</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
+          <t>Rajajinagar</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>120</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>35</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99003787</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Arikatla Pujitha</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>arikatla.pujitha@ltts.com</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>74</v>
-      </c>
-      <c r="R2" t="n">
-        <v>77</v>
-      </c>
-      <c r="S2" t="n">
-        <v>69</v>
-      </c>
-      <c r="T2" t="n">
-        <v>37</v>
-      </c>
-      <c r="U2" t="n">
-        <v>67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>99003787</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Arikatla Pujitha</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>arikatla.pujitha@ltts.com</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="Z2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>99</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Fresher</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>College</t>
-        </is>
-      </c>
-      <c r="AE2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>99003787</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Arikatla Pujitha</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>arikatla.pujitha@ltts.com</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Fairfield Marriot</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>Rajajinagar</t>
-        </is>
-      </c>
-      <c r="AM2" t="n">
-        <v>134</v>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="AO2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
